--- a/Assets/Data/ScorePrizes.xlsx
+++ b/Assets/Data/ScorePrizes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="8580" windowHeight="4880" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PrizeSets" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <t>""</t>
   </si>
   <si>
-    <t>「並行世界化」が実行可能になる</t>
+    <t>「歴史確定」が実行可能になる</t>
   </si>
 </sst>
 </file>
@@ -50,9 +50,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -64,6 +64,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -79,22 +108,68 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,21 +183,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -131,77 +191,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,187 +216,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,35 +407,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -454,6 +425,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -465,21 +451,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,6 +478,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -515,16 +515,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,127 +533,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,7 +986,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1045,10 +1045,13 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
+  <cols>
+    <col min="2" max="2" width="31.4545454545455" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">

--- a/Assets/Data/ScorePrizes.xlsx
+++ b/Assets/Data/ScorePrizes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8580" windowHeight="4880" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PrizeSets" sheetId="1" r:id="rId1"/>
@@ -35,13 +35,13 @@
     <t>Help</t>
   </si>
   <si>
-    <t>「過去改編」が実行可能になる</t>
+    <t>「過去改編」解放</t>
   </si>
   <si>
     <t>""</t>
   </si>
   <si>
-    <t>「歴史確定」が実行可能になる</t>
+    <t>「並行世界化」解放</t>
   </si>
 </sst>
 </file>
@@ -50,8 +50,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -63,6 +63,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -70,82 +121,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,17 +170,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,24 +185,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,13 +216,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -234,169 +348,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,6 +407,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -425,17 +434,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -457,9 +460,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,27 +488,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,7 +515,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -524,7 +524,7 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,127 +533,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -986,7 +986,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -1013,7 +1013,7 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>5000</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -1027,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1045,7 +1045,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D6" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>

--- a/Assets/Data/ScorePrizes.xlsx
+++ b/Assets/Data/ScorePrizes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="PrizeSets" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>Id</t>
   </si>
@@ -43,6 +43,9 @@
   <si>
     <t>「並行世界化」解放</t>
   </si>
+  <si>
+    <t>「初期仲間変更」解放</t>
+  </si>
 </sst>
 </file>
 
@@ -50,9 +53,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -60,6 +63,127 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -72,49 +196,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -123,85 +204,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,19 +219,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,49 +279,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,109 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,11 +413,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -436,34 +445,19 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -480,6 +474,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,16 +518,16 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,127 +536,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,13 +986,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="10.3636363636364" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -1010,7 +1016,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>20010</v>
       </c>
       <c r="C2">
         <v>5000</v>
@@ -1024,13 +1030,27 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>20020</v>
       </c>
       <c r="C3">
         <v>10000</v>
       </c>
       <c r="D3">
         <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>20030</v>
+      </c>
+      <c r="C4">
+        <v>20000</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1042,13 +1062,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D5:D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="31.4545454545455" customWidth="1"/>
   </cols>
@@ -1086,6 +1106,17 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/ScorePrizes.xlsx
+++ b/Assets/Data/ScorePrizes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PrizeSets" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>Id</t>
   </si>
@@ -38,13 +38,19 @@
     <t>「過去改編」解放</t>
   </si>
   <si>
-    <t>""</t>
+    <t>過去のマスを選び直すことができる</t>
   </si>
   <si>
     <t>「並行世界化」解放</t>
   </si>
   <si>
+    <t>過去のマスを2つ選んだことにできる</t>
+  </si>
+  <si>
     <t>「初期仲間変更」解放</t>
+  </si>
+  <si>
+    <t>初期加入メンバーを変更することができる</t>
   </si>
 </sst>
 </file>
@@ -52,10 +58,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -66,9 +72,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -76,29 +119,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,9 +132,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,50 +187,6 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,23 +200,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,7 +210,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,187 +225,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,6 +416,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,41 +490,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -496,17 +506,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -518,145 +524,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -988,7 +994,7 @@
   <sheetPr/>
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1064,8 +1070,8 @@
   <sheetPr/>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1103,7 +1109,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1111,10 +1117,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/ScorePrizes.xlsx
+++ b/Assets/Data/ScorePrizes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="PrizeSets" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -41,7 +41,7 @@
     <t>過去のマスを選び直すことができる</t>
   </si>
   <si>
-    <t>「並行世界化」解放</t>
+    <t>「並行世界化」解放・可能回数+1</t>
   </si>
   <si>
     <t>過去のマスを2つ選んだことにできる</t>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>初期加入メンバーを変更することができる</t>
+  </si>
+  <si>
+    <t>「並行世界化」可能回数+1</t>
   </si>
 </sst>
 </file>
@@ -58,9 +61,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -74,6 +77,75 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
@@ -81,8 +153,36 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,121 +196,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,13 +228,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +372,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -255,73 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -333,79 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,6 +419,59 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,15 +505,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -472,50 +519,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -524,145 +527,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -992,13 +995,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="10.3636363636364" customWidth="1"/>
   </cols>
@@ -1057,6 +1060,34 @@
       </c>
       <c r="D4">
         <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>20020</v>
+      </c>
+      <c r="C5">
+        <v>40000</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>20020</v>
+      </c>
+      <c r="C6">
+        <v>80000</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1068,13 +1099,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="31.4545454545455" customWidth="1"/>
   </cols>
@@ -1123,6 +1154,17 @@
         <v>11</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Assets/Data/ScorePrizes.xlsx
+++ b/Assets/Data/ScorePrizes.xlsx
@@ -61,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,14 +75,66 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -90,8 +142,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -105,82 +188,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -198,22 +205,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +228,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,103 +282,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,61 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -419,15 +419,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -442,50 +433,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -519,6 +466,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -527,145 +527,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -998,7 +998,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="3"/>
@@ -1042,7 +1042,7 @@
         <v>20020</v>
       </c>
       <c r="C3">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1056,7 +1056,7 @@
         <v>20030</v>
       </c>
       <c r="C4">
-        <v>20000</v>
+        <v>50000</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -1070,7 +1070,7 @@
         <v>20020</v>
       </c>
       <c r="C5">
-        <v>40000</v>
+        <v>100000</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -1084,7 +1084,7 @@
         <v>20020</v>
       </c>
       <c r="C6">
-        <v>80000</v>
+        <v>200000</v>
       </c>
       <c r="D6">
         <v>4</v>

--- a/Assets/Data/ScorePrizes.xlsx
+++ b/Assets/Data/ScorePrizes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PrizeSets" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,10 @@
     <t>過去のマスを2つ選んだことにできる</t>
   </si>
   <si>
-    <t>「初期仲間変更」解放</t>
-  </si>
-  <si>
-    <t>初期加入メンバーを変更することができる</t>
+    <t>「多元宇宙生成」解放</t>
+  </si>
+  <si>
+    <t>別次元のステージを作ることができる</t>
   </si>
   <si>
     <t>「並行世界化」可能回数+1</t>
@@ -61,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -76,7 +76,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -84,36 +98,36 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,54 +141,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -188,13 +165,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -213,7 +183,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -433,21 +433,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,11 +461,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,7 +480,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,6 +502,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -527,145 +527,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,7 +997,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1101,8 +1101,8 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="2"/>

--- a/Assets/Data/ScorePrizes.xlsx
+++ b/Assets/Data/ScorePrizes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070" activeTab="1"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="PrizeSets" sheetId="1" r:id="rId1"/>
@@ -47,10 +47,10 @@
     <t>過去のマスを2つ選んだことにできる</t>
   </si>
   <si>
-    <t>「多元宇宙生成」解放</t>
-  </si>
-  <si>
-    <t>別次元のステージを作ることができる</t>
+    <t>「初期加入変更」解放</t>
+  </si>
+  <si>
+    <t>初期加入の仲間を変更できる</t>
   </si>
   <si>
     <t>「並行世界化」可能回数+1</t>
@@ -61,10 +61,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,6 +75,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -82,36 +127,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -119,6 +135,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -128,6 +152,37 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,72 +196,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,187 +228,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,6 +437,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -448,39 +457,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,8 +479,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,145 +527,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -997,7 +997,7 @@
   <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1101,7 +1101,7 @@
   <sheetPr/>
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Data/ScorePrizes.xlsx
+++ b/Assets/Data/ScorePrizes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Id</t>
   </si>
@@ -54,6 +54,12 @@
   </si>
   <si>
     <t>「並行世界化」可能回数+1</t>
+  </si>
+  <si>
+    <t>「レベルリンク」解放</t>
+  </si>
+  <si>
+    <t>Lv降順5位が最低Lvになる</t>
   </si>
 </sst>
 </file>
@@ -61,10 +67,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -75,55 +81,100 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -143,77 +194,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +234,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,169 +414,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,15 +443,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -457,6 +454,48 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,39 +517,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -527,145 +533,145 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -995,13 +1001,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="6" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="10.3636363636364" customWidth="1"/>
   </cols>
@@ -1042,7 +1048,7 @@
         <v>20020</v>
       </c>
       <c r="C3">
-        <v>25000</v>
+        <v>10000</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -1056,10 +1062,10 @@
         <v>20030</v>
       </c>
       <c r="C4">
-        <v>50000</v>
+        <v>25000</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1070,10 +1076,10 @@
         <v>20020</v>
       </c>
       <c r="C5">
-        <v>100000</v>
+        <v>50000</v>
       </c>
       <c r="D5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1084,10 +1090,24 @@
         <v>20020</v>
       </c>
       <c r="C6">
-        <v>200000</v>
+        <v>75000</v>
       </c>
       <c r="D6">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>20040</v>
+      </c>
+      <c r="C7">
+        <v>100000</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1099,13 +1119,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="13" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="2" max="2" width="31.4545454545455" customWidth="1"/>
   </cols>
@@ -1165,6 +1185,17 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
